--- a/CardFiles/Impressions.xlsx
+++ b/CardFiles/Impressions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kage\Documents\GitHub\Sculpt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kage\Documents\GitHub\Sculpt\CardFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09FF00-121B-45F1-84E9-F4CB676216E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF8C637-0D2C-4EE0-AD64-903EF3B8C8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2330,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;&lt;i&gt;Passive - &lt;b&gt;Relish in battle:&lt;br&gt;&lt;/i&gt;&lt;/b&gt;Whenever you critically hit, restore 2 composure or gain up to 2 temporary composure.LineBrk&lt;i&gt;Reaction - &lt;b&gt;Double down:&lt;/b&gt;&lt;/i&gt; jazzTjazzT&lt;br&gt;Re-roll an attack roll you have made.</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>78</v>
       </c>
